--- a/data_handler/config_calc_amount(India)/2-statistic_config-type 1day.xlsx
+++ b/data_handler/config_calc_amount(India)/2-statistic_config-type 1day.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9D8156-9705-4A45-B005-94F9CBBBE107}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82271E21-82E8-4B0A-B7FA-CB25F512563E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Mapping(Input)" sheetId="6" r:id="rId1"/>
@@ -15,9 +15,6 @@
     <sheet name="calculations2" sheetId="3" r:id="rId5"/>
     <sheet name="Fill&amp;Sort(Ouput)1" sheetId="5" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -778,35 +775,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1.Mapping(Input)"/>
-      <sheetName val="2.time process"/>
-      <sheetName val="statistic groups1"/>
-      <sheetName val="statistic groups2"/>
-      <sheetName val="calculations2"/>
-      <sheetName val="Fill&amp;Sort(Ouput)1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="C2">
-            <v>44208</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1132,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1335,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1374,7 +1342,7 @@
       </c>
       <c r="C2" s="31">
         <f ca="1">TODAY()</f>
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>38</v>
@@ -1856,7 +1824,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1944,7 +1912,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2037,8 +2005,8 @@
         <v>74</v>
       </c>
       <c r="B6" s="41" t="str">
-        <f>TEXT('[1]2.time process'!$C$2-6,"YYYY/mm/dd")</f>
-        <v>2021/01/06</v>
+        <f ca="1">TEXT('2.time process'!$C$2-6,"YYYY/mm/dd")</f>
+        <v>2021/01/19</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>16</v>
@@ -2052,8 +2020,8 @@
         <v>72</v>
       </c>
       <c r="B7" s="41" t="str">
-        <f>TEXT('[1]2.time process'!$C$2-5,"YYYY/mm/dd")</f>
-        <v>2021/01/07</v>
+        <f ca="1">TEXT('2.time process'!$C$2-5,"YYYY/mm/dd")</f>
+        <v>2021/01/20</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>16</v>
@@ -2067,8 +2035,8 @@
         <v>56</v>
       </c>
       <c r="B8" s="41" t="str">
-        <f>TEXT('[1]2.time process'!$C$2-4,"YYYY/mm/dd")</f>
-        <v>2021/01/08</v>
+        <f ca="1">TEXT('2.time process'!$C$2-4,"YYYY/mm/dd")</f>
+        <v>2021/01/21</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>16</v>
@@ -2082,8 +2050,8 @@
         <v>49</v>
       </c>
       <c r="B9" s="41" t="str">
-        <f>TEXT('[1]2.time process'!$C$2-3,"YYYY/mm/dd")</f>
-        <v>2021/01/09</v>
+        <f ca="1">TEXT('2.time process'!$C$2-3,"YYYY/mm/dd")</f>
+        <v>2021/01/22</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>16</v>
@@ -2097,8 +2065,8 @@
         <v>48</v>
       </c>
       <c r="B10" s="41" t="str">
-        <f>TEXT('[1]2.time process'!$C$2-2,"YYYY/mm/dd")</f>
-        <v>2021/01/10</v>
+        <f ca="1">TEXT('2.time process'!$C$2-2,"YYYY/mm/dd")</f>
+        <v>2021/01/23</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>16</v>
@@ -2112,8 +2080,8 @@
         <v>52</v>
       </c>
       <c r="B11" s="41" t="str">
-        <f>TEXT('[1]2.time process'!$C$2-1,"YYYY/mm/dd")</f>
-        <v>2021/01/11</v>
+        <f ca="1">TEXT('2.time process'!$C$2-1,"YYYY/mm/dd")</f>
+        <v>2021/01/24</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>16</v>
